--- a/data/trans_bre/IP16B02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Edad-trans_bre.xlsx
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-16,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,84</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-11,98</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-17,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,79%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,6%</t>
+          <t>-12,46%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 23,95</t>
+          <t>-41,4; 2,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,35; -10,43</t>
+          <t>-18,41; 15,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 13,42</t>
+          <t>-31,93; 1,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 37,77</t>
+          <t>-44,28; 2,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,74; -11,29</t>
+          <t>-21,02; 20,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 17,69</t>
+          <t>-33,33; 1,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,81</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-25,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,98</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,86%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>-26,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,46%</t>
+          <t>-5,6%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 2,14</t>
+          <t>-22,61; 23,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 15,9</t>
+          <t>-41,35; -10,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 1,15</t>
+          <t>-24,06; 13,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-44,28; 2,19</t>
+          <t>-27,82; 37,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 20,91</t>
+          <t>-41,74; -11,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 1,02</t>
+          <t>-26,26; 17,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 17,37</t>
+          <t>-7,95; 16,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,47; 7,39</t>
+          <t>0,0; 28,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 22,84</t>
+          <t>-8,02; 20,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 7,76</t>
+          <t>0,0; 39,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,81</t>
+          <t>-19,98</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,98</t>
+          <t>-18,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,86%</t>
+          <t>-21,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,46%</t>
+          <t>-19,44%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,4; 2,14</t>
+          <t>-42,64; -3,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 15,9</t>
+          <t>-22,25; 14,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 1,15</t>
+          <t>-38,31; -5,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,28; 2,19</t>
+          <t>-44,37; -3,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 20,91</t>
+          <t>-26,83; 20,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 1,02</t>
+          <t>-38,77; -6,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-25,84</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,79%</t>
+          <t>-11,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,6%</t>
+          <t>13,49%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,61; 23,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-41,35; -10,43</t>
+          <t>-31,42; 10,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 13,42</t>
+          <t>-8,59; 30,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 37,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,74; -11,29</t>
+          <t>-33,47; 11,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 17,69</t>
+          <t>-9,43; 45,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,46</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,58</t>
+          <t>-26,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,73</t>
+          <t>-18,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>-28,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>-20,08%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 3,06</t>
+          <t>-31,72; 28,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 2,94</t>
+          <t>-46,87; -7,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 1,57</t>
+          <t>-37,72; 8,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 3,62</t>
+          <t>-39,19; 55,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 3,24</t>
+          <t>-49,65; -9,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 1,78</t>
+          <t>-39,48; 8,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-8,46</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-6,58</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-7,73</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-9,53%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-7,52%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-8,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-22,31; 2,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-16,08; 3,39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-17,52; 3,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-24,51; 2,58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-17,7; 3,85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-18,64; 3,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP16B02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 16,48</t>
+          <t>-7,92; 18,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,08</t>
+          <t>0,0; 26,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 20,47</t>
+          <t>-7,95; 23,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,04</t>
+          <t>0,0; 36,92</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,64; -3,68</t>
+          <t>-42,34; -4,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 14,82</t>
+          <t>-23,91; 16,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,31; -5,68</t>
+          <t>-36,47; -5,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,37; -3,98</t>
+          <t>-44,44; -4,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 20,49</t>
+          <t>-28,33; 22,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,77; -6,05</t>
+          <t>-37,24; -5,64</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 10,13</t>
+          <t>-29,42; 11,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 30,98</t>
+          <t>-8,19; 30,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 11,98</t>
+          <t>-31,8; 13,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 45,06</t>
+          <t>-8,12; 45,34</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 28,71</t>
+          <t>-28,9; 29,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,87; -7,0</t>
+          <t>-49,16; -6,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 8,63</t>
+          <t>-37,02; 5,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,19; 55,45</t>
+          <t>-39,32; 59,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,65; -9,34</t>
+          <t>-49,83; -8,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 8,8</t>
+          <t>-38,88; 5,18</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 2,5</t>
+          <t>-20,94; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 3,39</t>
+          <t>-15,92; 2,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 3,33</t>
+          <t>-17,17; 3,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 2,58</t>
+          <t>-23,18; 4,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 3,85</t>
+          <t>-17,46; 3,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 3,8</t>
+          <t>-18,39; 4,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B02-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 18,29</t>
+          <t>-8,35; 16,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,95</t>
+          <t>0,0; 33,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 23,65</t>
+          <t>-8,86; 19,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,92</t>
+          <t>0,0; 49,99</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,34; -4,35</t>
+          <t>-40,54; -1,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 16,02</t>
+          <t>-24,93; 15,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,47; -5,02</t>
+          <t>-36,17; -4,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,44; -4,9</t>
+          <t>-42,22; -2,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 22,94</t>
+          <t>-28,78; 21,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,24; -5,64</t>
+          <t>-36,95; -4,6</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,42; 11,63</t>
+          <t>-32,42; 11,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 30,47</t>
+          <t>-8,69; 30,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 13,98</t>
+          <t>-34,51; 13,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 45,34</t>
+          <t>-8,64; 45,66</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 29,02</t>
+          <t>-33,76; 28,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,16; -6,34</t>
+          <t>-46,82; -5,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 5,25</t>
+          <t>-39,2; 6,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 59,23</t>
+          <t>-43,75; 54,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,83; -8,45</t>
+          <t>-49,48; -7,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,88; 5,18</t>
+          <t>-41,62; 7,1</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 3,78</t>
+          <t>-21,3; 3,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 2,66</t>
+          <t>-17,15; 2,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 3,68</t>
+          <t>-17,91; 1,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 4,23</t>
+          <t>-23,69; 3,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 3,08</t>
+          <t>-18,73; 3,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 4,26</t>
+          <t>-18,71; 1,78</t>
         </is>
       </c>
     </row>
